--- a/models/calculation engines/cbix2/outputs/capesize/freight_calcs_to_qingdao_first_leg/actual_price_determination_from_CBIX_price/frieght_calculations-actual_port-first_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/freight_calcs_to_qingdao_first_leg/actual_price_determination_from_CBIX_price/frieght_calculations-actual_port-first_leg.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>329.22</v>
+        <v>329.2199999999999</v>
       </c>
       <c r="E2" t="n">
         <v>84714</v>
